--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/145.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/145.xlsx
@@ -479,13 +479,13 @@
         <v>0.07613992720768846</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.360074983385152</v>
+        <v>-1.851628029469022</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2598381397509615</v>
+        <v>0.04987592037764179</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005764093358699798</v>
+        <v>-0.1265424155303805</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1076252037216503</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.538252940445593</v>
+        <v>-1.978794660808962</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3109580313519233</v>
+        <v>0.001359170225040771</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.008684393558969499</v>
+        <v>-0.1089205873377756</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1399740404495738</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.718175880562209</v>
+        <v>-2.103354491176481</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2247481833762923</v>
+        <v>-0.015749714678419</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01643038615366984</v>
+        <v>-0.1278183695861374</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1535512438646223</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.858687576309397</v>
+        <v>-2.14218814066503</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1038442175452015</v>
+        <v>0.00492720618401691</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.009116827318783872</v>
+        <v>-0.1428138793446652</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.139177961020318</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.875406721900414</v>
+        <v>-2.066198733469666</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1014234423791885</v>
+        <v>0.0243867253756637</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04978389836163739</v>
+        <v>-0.134639112514211</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.09666347918553275</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.581553648970644</v>
+        <v>-1.81396908720389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0253272230592092</v>
+        <v>0.1318498692532575</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.005921452893300797</v>
+        <v>-0.1374715841370289</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03507731988810366</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.32930509516389</v>
+        <v>-1.470134844576647</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01181991975194671</v>
+        <v>0.2034228408282886</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.008528253865721997</v>
+        <v>-0.1154924826297359</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03003994419436954</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.8001293771278</v>
+        <v>-1.073445486023094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0241354380568435</v>
+        <v>0.2564157988275436</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01007135317789458</v>
+        <v>-0.08842969228174784</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07928440512702001</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.294061723771664</v>
+        <v>-0.5930164582347394</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03524948863473117</v>
+        <v>0.2485142764602725</v>
       </c>
       <c r="G10" t="n">
-        <v>0.081998002739255</v>
+        <v>-0.05050848412561407</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08716126730102677</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7569564270171731</v>
+        <v>-0.0006377100706323707</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1321884512350373</v>
+        <v>0.1983879456417334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1671045042106488</v>
+        <v>0.03206074733050776</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03526450574511472</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1829448301126571</v>
+        <v>0.5729194959297064</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4507792968930318</v>
+        <v>0.03278289341177747</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2562401416726402</v>
+        <v>0.08679380902052498</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08548235104196328</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3029710440837229</v>
+        <v>1.162189478404429</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6204403216233624</v>
+        <v>-0.1125874304463849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.335594481241623</v>
+        <v>0.1918434967802267</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2668702046431722</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9483390907230245</v>
+        <v>1.771694799171621</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8730847139493266</v>
+        <v>-0.3363386604734402</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5621672043193149</v>
+        <v>0.2909854928649468</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4939474577499673</v>
       </c>
       <c r="E15" t="n">
-        <v>1.408957894930602</v>
+        <v>2.42091388496391</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.18487494406158</v>
+        <v>-0.6177816773934176</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6139946039053044</v>
+        <v>0.4100877530169239</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7471426313453307</v>
       </c>
       <c r="E16" t="n">
-        <v>1.983274452173492</v>
+        <v>2.956244922469741</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.412034410830304</v>
+        <v>-0.9145532207614271</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6363512463115044</v>
+        <v>0.5271168927886342</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.006347445793452</v>
       </c>
       <c r="E17" t="n">
-        <v>2.435373884368253</v>
+        <v>3.46383310807301</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.760690686327917</v>
+        <v>-1.224263011445293</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6821117649258809</v>
+        <v>0.645975184669912</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.248827761104053</v>
       </c>
       <c r="E18" t="n">
-        <v>2.719548126078708</v>
+        <v>3.87731297293676</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.0916812193442</v>
+        <v>-1.570127070084754</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8319375593276879</v>
+        <v>0.8054731011635896</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.458443690589378</v>
       </c>
       <c r="E19" t="n">
-        <v>2.785790390938961</v>
+        <v>4.268015960048031</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.447993829097031</v>
+        <v>-1.912334044346433</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8949008906297434</v>
+        <v>0.9595817585575215</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.62625093927038</v>
       </c>
       <c r="E20" t="n">
-        <v>3.045408006362186</v>
+        <v>4.617101619702075</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.71487864938371</v>
+        <v>-2.226509064304772</v>
       </c>
       <c r="G20" t="n">
-        <v>1.002577506744199</v>
+        <v>1.091810121593793</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.750109913262299</v>
       </c>
       <c r="E21" t="n">
-        <v>3.29203187168797</v>
+        <v>4.823557329098586</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.018870128762724</v>
+        <v>-2.536365235951058</v>
       </c>
       <c r="G21" t="n">
-        <v>1.144876270074258</v>
+        <v>1.212260306441384</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.830861284857275</v>
       </c>
       <c r="E22" t="n">
-        <v>3.377418326749991</v>
+        <v>5.013324388937916</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.246982596588866</v>
+        <v>-2.817513051263489</v>
       </c>
       <c r="G22" t="n">
-        <v>1.086030513260929</v>
+        <v>1.365151562164526</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.868319353509885</v>
       </c>
       <c r="E23" t="n">
-        <v>3.473924855590483</v>
+        <v>5.131020781929989</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.498722171590875</v>
+        <v>-3.094115432732455</v>
       </c>
       <c r="G23" t="n">
-        <v>1.283040381136642</v>
+        <v>1.452303737585733</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.863315484960921</v>
       </c>
       <c r="E24" t="n">
-        <v>3.459094024414677</v>
+        <v>5.219670312612612</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.601787787389115</v>
+        <v>-3.268193198043457</v>
       </c>
       <c r="G24" t="n">
-        <v>1.331687654314067</v>
+        <v>1.553858579867669</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.820367306393453</v>
       </c>
       <c r="E25" t="n">
-        <v>3.481554963256601</v>
+        <v>5.256819361191982</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.668578370937765</v>
+        <v>-3.399274910207442</v>
       </c>
       <c r="G25" t="n">
-        <v>1.372864009122005</v>
+        <v>1.608392807417066</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.750114024242614</v>
       </c>
       <c r="E26" t="n">
-        <v>3.223639026521504</v>
+        <v>5.228628827512687</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.665111886771467</v>
+        <v>-3.460115412594076</v>
       </c>
       <c r="G26" t="n">
-        <v>1.361582916284873</v>
+        <v>1.63545071839964</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.662940464926827</v>
       </c>
       <c r="E27" t="n">
-        <v>3.244073808875271</v>
+        <v>5.150213765785897</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.615253006169682</v>
+        <v>-3.549222383784261</v>
       </c>
       <c r="G27" t="n">
-        <v>1.312728879998031</v>
+        <v>1.630447539088276</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.569410815791178</v>
       </c>
       <c r="E28" t="n">
-        <v>3.082618047009231</v>
+        <v>5.051837220150495</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.499611740897912</v>
+        <v>-3.555018764935736</v>
       </c>
       <c r="G28" t="n">
-        <v>1.215725875726666</v>
+        <v>1.618236317219103</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.478272338000645</v>
       </c>
       <c r="E29" t="n">
-        <v>2.830842791647633</v>
+        <v>4.872218020530899</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.417732939647869</v>
+        <v>-3.523872250696581</v>
       </c>
       <c r="G29" t="n">
-        <v>1.196794547841083</v>
+        <v>1.579212372479408</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.396454662835554</v>
       </c>
       <c r="E30" t="n">
-        <v>2.6337127693986</v>
+        <v>4.723756008762301</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.128460066040138</v>
+        <v>-3.411840191029468</v>
       </c>
       <c r="G30" t="n">
-        <v>1.056517061633767</v>
+        <v>1.522762994005022</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.325969492065577</v>
       </c>
       <c r="E31" t="n">
-        <v>2.479097877842968</v>
+        <v>4.51330165940903</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.11900324594716</v>
+        <v>-3.344736413213308</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8829873100508235</v>
+        <v>1.444520539829751</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.264925959896727</v>
       </c>
       <c r="E32" t="n">
-        <v>2.189022043664298</v>
+        <v>4.296804215990539</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.975895117879056</v>
+        <v>-3.222987402284583</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8451374626138694</v>
+        <v>1.402806844905598</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.211011095535991</v>
       </c>
       <c r="E33" t="n">
-        <v>1.918298992558845</v>
+        <v>4.049471622838374</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.905217204897153</v>
+        <v>-3.088266293442441</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6782235206116121</v>
+        <v>1.29920998819791</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.159541390136706</v>
       </c>
       <c r="E34" t="n">
-        <v>1.680637911577873</v>
+        <v>3.759284783096536</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.604119494168969</v>
+        <v>-2.875117619499636</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5487562684789785</v>
+        <v>1.184939519647131</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.108002501884818</v>
       </c>
       <c r="E35" t="n">
-        <v>1.529156182538695</v>
+        <v>3.507008172938651</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.532658138077783</v>
+        <v>-2.759297952429917</v>
       </c>
       <c r="G35" t="n">
-        <v>0.536849397027503</v>
+        <v>1.09475359877978</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.052957913964935</v>
       </c>
       <c r="E36" t="n">
-        <v>1.330476961770722</v>
+        <v>3.227242437879731</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.295338002755114</v>
+        <v>-2.625479526189363</v>
       </c>
       <c r="G36" t="n">
-        <v>0.418446715891756</v>
+        <v>1.022963495443826</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9942027667483346</v>
       </c>
       <c r="E37" t="n">
-        <v>1.092128500187056</v>
+        <v>2.945722570954483</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.258070019643777</v>
+        <v>-2.513423679615856</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4350017928207285</v>
+        <v>0.9177948731521585</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9311547631732926</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8603769406430963</v>
+        <v>2.671338775947188</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.10267747922529</v>
+        <v>-2.395295462784646</v>
       </c>
       <c r="G38" t="n">
-        <v>0.405226075302565</v>
+        <v>0.8450227975266407</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8658770168630889</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7411362284974975</v>
+        <v>2.409291236547799</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.991604214862025</v>
+        <v>-2.284760148458272</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2689563778621605</v>
+        <v>0.7500855945874217</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7983038802530117</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5132149708035157</v>
+        <v>2.154600560351345</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.994935601598423</v>
+        <v>-2.207205684806373</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1982958476195444</v>
+        <v>0.6767902070212541</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7299311270150262</v>
       </c>
       <c r="E41" t="n">
-        <v>0.264846732342232</v>
+        <v>1.862604695882273</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.888040293870881</v>
+        <v>-2.117243604827387</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2245517129121949</v>
+        <v>0.5882809580942829</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6604884869867785</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02510338217084267</v>
+        <v>1.639708574644018</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.896011957115979</v>
+        <v>-2.030517763959228</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2246224637106976</v>
+        <v>0.531813891920271</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5897200584398761</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.05664855557843677</v>
+        <v>1.389692940434838</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.783044279130733</v>
+        <v>-1.930054069767995</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1394171550896707</v>
+        <v>0.4615315124972388</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5167438371078632</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2170369562601666</v>
+        <v>1.214076650216739</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.729381018307732</v>
+        <v>-1.836683753047341</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1583850782158585</v>
+        <v>0.411595476929845</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4419695447938776</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.2541469699162254</v>
+        <v>1.031639617070567</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.751671789280844</v>
+        <v>-1.767468734808618</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1241105857860014</v>
+        <v>0.3458704248034743</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3671536610623504</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.3725374526384375</v>
+        <v>0.865955275152634</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.763290168252217</v>
+        <v>-1.700188994877217</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03238827473392147</v>
+        <v>0.248617353054643</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2945284377163807</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.4440360138909053</v>
+        <v>0.6903639916822821</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.723561765130879</v>
+        <v>-1.628160412556655</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01044942799129383</v>
+        <v>0.1921149114813796</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2274436057582204</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3928386623639966</v>
+        <v>0.5317394815977077</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.621589127185371</v>
+        <v>-1.527296000480798</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.03083000341101473</v>
+        <v>0.1116383178671804</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1682154993487756</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.4601421892017912</v>
+        <v>0.4266879640759757</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.556147688173688</v>
+        <v>-1.423105081033958</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.03880410633881885</v>
+        <v>0.08940914888242066</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1185755858598548</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5048847502066753</v>
+        <v>0.3196731118957917</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.538949144930747</v>
+        <v>-1.317329587668926</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1080423015632584</v>
+        <v>0.0355336356639112</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07804315513419609</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5736520866686653</v>
+        <v>0.1899637212544892</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.378044751356488</v>
+        <v>-1.236355908703177</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.08972394395780721</v>
+        <v>-0.003832474575438698</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04631455247898568</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.6726153759950982</v>
+        <v>0.1150002006374157</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.364186743660095</v>
+        <v>-1.173161417464634</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1791181877867398</v>
+        <v>-0.04597555365602251</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02104425543126936</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.7257602042428635</v>
+        <v>0.002325894497686443</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.32397772304548</v>
+        <v>-1.102558219765632</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1657633646486643</v>
+        <v>-0.09855559535711909</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.001122091867549894</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.8239952482812593</v>
+        <v>-0.1134187523287925</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.284074272689915</v>
+        <v>-1.02545997677994</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2769079897311094</v>
+        <v>-0.1705268451340667</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.01539845190734208</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.820686428609901</v>
+        <v>-0.1862713374836411</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.288948758738485</v>
+        <v>-1.012696776698311</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2773337143634796</v>
+        <v>-0.1868098974412096</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02962037203266045</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.8459755696299057</v>
+        <v>-0.2632750427644369</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.302145002500606</v>
+        <v>-0.9746932292508159</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.3210235522802965</v>
+        <v>-0.2465937122553775</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.04270690345936544</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.9471181055343594</v>
+        <v>-0.3451562836971869</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.265627831742346</v>
+        <v>-0.9467271463805639</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2711966925140406</v>
+        <v>-0.2732637136875398</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.05432628369428778</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9902462065078913</v>
+        <v>-0.4373708007354025</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.223608566559143</v>
+        <v>-0.9066596273629537</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3915450206086139</v>
+        <v>-0.3088849109716566</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06445240135533445</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.031507950210574</v>
+        <v>-0.5311924587568493</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.340387638853386</v>
+        <v>-0.9046249319853222</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3499234237066497</v>
+        <v>-0.3281797515805814</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07299465159113407</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.249776603274341</v>
+        <v>-0.6676195157318549</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.334275623751694</v>
+        <v>-0.9270023116945317</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3688108373035068</v>
+        <v>-0.3727015213004827</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.07984242769724148</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.440041358385898</v>
+        <v>-0.7986652425759123</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.30017129919065</v>
+        <v>-0.9367018802168561</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3407063024396331</v>
+        <v>-0.4073553843912771</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.08570040592353367</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.428127167886301</v>
+        <v>-0.8699405728606904</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.236666358327642</v>
+        <v>-0.9327563033589729</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3830036914514341</v>
+        <v>-0.4394384318295784</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.09178718321964177</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.601001864662417</v>
+        <v>-0.9760759194250037</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.309689111351303</v>
+        <v>-0.96932836697814</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3963444864139444</v>
+        <v>-0.4766734792243706</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.09888763062405839</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.768798361883929</v>
+        <v>-1.043921055823751</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.337167257680157</v>
+        <v>-0.9940271047830526</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3972715658426014</v>
+        <v>-0.502953741344091</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1074944877820295</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.795695863728519</v>
+        <v>-1.109133774581653</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.372312106915733</v>
+        <v>-1.020470215723465</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4005938037688481</v>
+        <v>-0.5240954217622089</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1182344589154481</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.805932772367058</v>
+        <v>-1.165571564563181</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.432648509863035</v>
+        <v>-1.053050348513316</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4698704239959228</v>
+        <v>-0.5557679925850588</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1307009221375593</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.828061304440154</v>
+        <v>-1.206567992771479</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.488013449374163</v>
+        <v>-1.103092510278463</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4571950524917446</v>
+        <v>-0.5891928655122058</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1453616320273907</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.853471209754155</v>
+        <v>-1.269139754999062</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.475328929059833</v>
+        <v>-1.12350106604313</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.495548084487016</v>
+        <v>-0.6084596497700002</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1618003966116418</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.700700718325008</v>
+        <v>-1.272688273496382</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.644024449358872</v>
+        <v>-1.18047497629952</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.46682691981895</v>
+        <v>-0.6113305463954534</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1799710318210243</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.707205522342526</v>
+        <v>-1.274555850608585</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.542078647923141</v>
+        <v>-1.18562331673195</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4623214357798121</v>
+        <v>-0.6358231310116251</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2000767213390471</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.724512631465929</v>
+        <v>-1.270346788018346</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.624227034112307</v>
+        <v>-1.220537006031039</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4203046102793151</v>
+        <v>-0.6314097449946762</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2228326018403686</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.620390633055561</v>
+        <v>-1.272375994109887</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.821978565530946</v>
+        <v>-1.293745784861109</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4897032146417394</v>
+        <v>-0.6454354808771745</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2481577151523705</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.644374543827325</v>
+        <v>-1.206156296314674</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.811928292619491</v>
+        <v>-1.355168456533699</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.523744107452402</v>
+        <v>-0.6497073652971179</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.27592740546045</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.573150446879394</v>
+        <v>-1.143724815842742</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.912190103066721</v>
+        <v>-1.39984392626414</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5272877465843082</v>
+        <v>-0.6649218365785982</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3045011072124335</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.366731332723488</v>
+        <v>-1.009909439205572</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.987199977655227</v>
+        <v>-1.434341039741011</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.520587158029554</v>
+        <v>-0.6619063887527558</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3330875498140712</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.243429158791424</v>
+        <v>-0.8726931448748544</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.044423955389084</v>
+        <v>-1.449240182032612</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4956645793362749</v>
+        <v>-0.6253318854508818</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3606187107835961</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.123669404149913</v>
+        <v>-0.7610032507073965</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.065732144151954</v>
+        <v>-1.494303561313466</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4092278408688936</v>
+        <v>-0.5998311019560455</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3859970471726739</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9277634926991133</v>
+        <v>-0.5908994235657469</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.133701704368757</v>
+        <v>-1.54089723157228</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4492636440113129</v>
+        <v>-0.5583320991101076</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4083967346748212</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.703399902312603</v>
+        <v>-0.3971416527384541</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.071771578693113</v>
+        <v>-1.56075563888652</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4255377296858134</v>
+        <v>-0.5046474910634203</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4273879971123044</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5475676090861812</v>
+        <v>-0.1991284653494901</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.28129457917299</v>
+        <v>-1.623536603906228</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3423610172356505</v>
+        <v>-0.4729584523822982</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4426268943584235</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2268060557396402</v>
+        <v>0.01746046617051275</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.272955133759814</v>
+        <v>-1.61126621973141</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3056889266254968</v>
+        <v>-0.4420440129606461</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4545303618165906</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1432968605144651</v>
+        <v>0.229368866417151</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.310453056966284</v>
+        <v>-1.638385732702336</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2121362436224959</v>
+        <v>-0.3547241093533336</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4641697071029035</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3112909720352431</v>
+        <v>0.4423568262616333</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.333562951408268</v>
+        <v>-1.630530564306498</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1113248946455164</v>
+        <v>-0.3168138797693814</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.472102451287691</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5944893406629014</v>
+        <v>0.6868404799327086</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.235069301002931</v>
+        <v>-1.589879961121917</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.07487542508237574</v>
+        <v>-0.2434873862486996</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.479228998323236</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7434185516698887</v>
+        <v>0.8860735086751688</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.232852849263629</v>
+        <v>-1.532124742478613</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01346739150602777</v>
+        <v>-0.1957501147209826</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4857453620913101</v>
       </c>
       <c r="E86" t="n">
-        <v>1.095548935342259</v>
+        <v>1.101778665134564</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.248019746732322</v>
+        <v>-1.444584047586317</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03702069828000752</v>
+        <v>-0.1306380328747437</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4911917128221062</v>
       </c>
       <c r="E87" t="n">
-        <v>1.289579950632735</v>
+        <v>1.275600568721669</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.19172528810983</v>
+        <v>-1.309437824032483</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04554060420731659</v>
+        <v>-0.06600412883907524</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.494808776548754</v>
       </c>
       <c r="E88" t="n">
-        <v>1.500920514729321</v>
+        <v>1.43366883114905</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.127001115814003</v>
+        <v>-1.208368478609239</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1068809365885455</v>
+        <v>-0.04770284901257301</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.495341079874496</v>
       </c>
       <c r="E89" t="n">
-        <v>1.504050627642392</v>
+        <v>1.5210979105575</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.913289790046897</v>
+        <v>-1.027361099529364</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1242728246860164</v>
+        <v>-0.01695552785634991</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.49184260480363</v>
       </c>
       <c r="E90" t="n">
-        <v>1.543303902556543</v>
+        <v>1.660488572100824</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.838746504776103</v>
+        <v>-0.8824799320539537</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1216934701440489</v>
+        <v>0.0195335865507794</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4841550179305964</v>
       </c>
       <c r="E91" t="n">
-        <v>1.633984469092738</v>
+        <v>1.707751325342031</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.488251318438095</v>
+        <v>-0.6672389252295641</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1340754698027112</v>
+        <v>0.02518084209678967</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4725475478045835</v>
       </c>
       <c r="E92" t="n">
-        <v>1.718809797132151</v>
+        <v>1.779240127863671</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.203640983443765</v>
+        <v>-0.4828586848072727</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1502054320199903</v>
+        <v>0.05188316932481964</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4572973143984592</v>
       </c>
       <c r="E93" t="n">
-        <v>1.770897632847111</v>
+        <v>1.817115591969049</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9353307785355265</v>
+        <v>-0.2795593149129332</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1749840694335569</v>
+        <v>0.03130261592930993</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4394161740450513</v>
       </c>
       <c r="E94" t="n">
-        <v>1.870453765071343</v>
+        <v>1.814728362440257</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.6979569701933033</v>
+        <v>-0.1448558937704177</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1434853260035802</v>
+        <v>-0.02995720692258826</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4201925230808765</v>
       </c>
       <c r="E95" t="n">
-        <v>1.880848643165161</v>
+        <v>1.782451970147427</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.4789734900963876</v>
+        <v>-0.009669415451917613</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1531086544413111</v>
+        <v>-0.0432925125990078</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4002396221747707</v>
       </c>
       <c r="E96" t="n">
-        <v>1.891125196647689</v>
+        <v>1.751739414469778</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2881183317697387</v>
+        <v>0.08206936345843453</v>
       </c>
       <c r="G96" t="n">
-        <v>0.07661728252898364</v>
+        <v>-0.06939711756382469</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3801949102862627</v>
       </c>
       <c r="E97" t="n">
-        <v>1.790778607226391</v>
+        <v>1.636027703359844</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1056995962438691</v>
+        <v>0.1491130640879346</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1101495014952384</v>
+        <v>-0.08425783485279112</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.358799497125408</v>
       </c>
       <c r="E98" t="n">
-        <v>1.728678313681934</v>
+        <v>1.514069184678655</v>
       </c>
       <c r="F98" t="n">
-        <v>0.03678702265462847</v>
+        <v>0.1679224078381679</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05486690127547115</v>
+        <v>-0.1066565617856868</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3348734733846944</v>
       </c>
       <c r="E99" t="n">
-        <v>1.613374029584067</v>
+        <v>1.369713158905925</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1414366024503835</v>
+        <v>0.2071701934662287</v>
       </c>
       <c r="G99" t="n">
-        <v>0.002876042948113191</v>
+        <v>-0.1210616683291224</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3050840910288252</v>
       </c>
       <c r="E100" t="n">
-        <v>1.435367460233793</v>
+        <v>1.198864008697289</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1900338621323153</v>
+        <v>0.2415825279690309</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06807961289586432</v>
+        <v>-0.1441648536436621</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2724746726991398</v>
       </c>
       <c r="E101" t="n">
-        <v>1.285572161865823</v>
+        <v>1.08107124823829</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2585383227826269</v>
+        <v>0.2426334212950678</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0628423000508133</v>
+        <v>-0.1642251447019057</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2325541677663476</v>
       </c>
       <c r="E102" t="n">
-        <v>1.082060539575976</v>
+        <v>0.9210597785347908</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2508277055871779</v>
+        <v>0.2507496357405542</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03469324097753693</v>
+        <v>-0.1802306831011283</v>
       </c>
     </row>
   </sheetData>
